--- a/config_8.3/activity_ty_task_config.xlsx
+++ b/config_8.3/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="290">
   <si>
     <t>index|索引</t>
   </si>
@@ -528,9 +528,6 @@
     <t>100,</t>
   </si>
   <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-  </si>
-  <si>
     <t>1888,</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
   </si>
   <si>
     <t>128000,</t>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
   </si>
   <si>
     <t>累计消耗10万金币</t>
@@ -1199,10 +1193,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>登录有礼c</t>
     </r>
@@ -1220,15 +1210,256 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>八月赠礼_cjj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>byzl_bg_1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>30,31,32,33,34,35,36,84,37</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_dlyl_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlyl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月赠礼cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个BAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中任意召唤出1个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出3个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中触发1次天女散花</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以上所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>85,86,87,88,89,90,91,92,93</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1315,7 +1546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,6 +1613,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1414,7 +1651,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,6 +1745,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1785,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1857,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -1973,10 +2213,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>260</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>259</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2004,13 +2244,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>206</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2021,16 +2261,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2042,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2101,7 +2358,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2122,7 +2379,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2284,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2296,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2304,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2316,7 +2573,27 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2331,8 +2608,8 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3048,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>104</v>
@@ -3308,7 +3585,7 @@
         <v>139</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -3334,7 +3611,7 @@
         <v>138</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>80</v>
@@ -3354,7 +3631,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3363,7 +3640,7 @@
         <v>138</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>80</v>
@@ -3382,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3391,7 +3668,7 @@
         <v>138</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>80</v>
@@ -3409,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3418,7 +3695,7 @@
         <v>138</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>80</v>
@@ -3436,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3445,7 +3722,7 @@
         <v>138</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>80</v>
@@ -3463,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3472,7 +3749,7 @@
         <v>138</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>80</v>
@@ -3487,10 +3764,10 @@
         <v>1000696</v>
       </c>
       <c r="C38" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3499,10 +3776,10 @@
         <v>138</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -3516,7 +3793,7 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -3525,7 +3802,7 @@
         <v>138</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>80</v>
@@ -3542,7 +3819,7 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -3551,7 +3828,7 @@
         <v>138</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>80</v>
@@ -3568,16 +3845,16 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>100</v>
@@ -3594,16 +3871,16 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>80</v>
@@ -3620,16 +3897,16 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>80</v>
@@ -3646,16 +3923,16 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>100</v>
@@ -3672,16 +3949,16 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>80</v>
@@ -3698,16 +3975,16 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>80</v>
@@ -3724,19 +4001,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -3750,16 +4027,16 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>80</v>
@@ -3776,16 +4053,16 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>80</v>
@@ -3802,16 +4079,16 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>100</v>
@@ -3828,16 +4105,16 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>80</v>
@@ -3854,16 +4131,16 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>80</v>
@@ -3880,16 +4157,16 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>100</v>
@@ -3906,16 +4183,16 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>80</v>
@@ -3932,16 +4209,16 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>100</v>
@@ -3958,16 +4235,16 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>80</v>
@@ -3984,19 +4261,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -4010,16 +4287,16 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>80</v>
@@ -4036,16 +4313,16 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>100</v>
@@ -4062,19 +4339,19 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4088,16 +4365,16 @@
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>68</v>
@@ -4114,13 +4391,13 @@
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>84</v>
@@ -4140,19 +4417,19 @@
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>84</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4166,19 +4443,19 @@
         <v>1</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4192,19 +4469,19 @@
         <v>100000</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E65" s="13">
         <v>1</v>
       </c>
       <c r="F65" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="41" t="s">
-        <v>231</v>
-      </c>
       <c r="H65" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4218,19 +4495,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E66" s="13">
         <v>2</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4244,19 +4521,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E67" s="13">
         <v>1</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4270,19 +4547,19 @@
         <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E68" s="13">
         <v>1</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4296,19 +4573,19 @@
         <v>100</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E69" s="13">
         <v>1</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4322,19 +4599,19 @@
         <v>100</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4348,19 +4625,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4374,19 +4651,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4400,19 +4677,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E73" s="13">
         <v>1</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4426,19 +4703,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E74" s="13">
         <v>2</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H74" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4452,19 +4729,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4478,19 +4755,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4504,19 +4781,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4530,19 +4807,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4556,19 +4833,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4582,19 +4859,19 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4608,19 +4885,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4634,19 +4911,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4660,19 +4937,19 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4686,19 +4963,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1</v>
+      </c>
+      <c r="F84" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="13">
-        <v>1</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>229</v>
-      </c>
       <c r="G84" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4712,47 +4989,254 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="G85" s="41" t="s">
-        <v>255</v>
-      </c>
       <c r="H85" s="41" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>85</v>
+      </c>
+      <c r="B86" s="47">
+        <v>1000724</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" s="13">
+        <v>1</v>
+      </c>
+      <c r="F86" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H86" s="41" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>86</v>
+      </c>
+      <c r="B87" s="47">
+        <v>1000725</v>
+      </c>
+      <c r="C87" s="13">
+        <v>88</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+      <c r="F87" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>87</v>
+      </c>
+      <c r="B88" s="47">
+        <v>1000726</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1</v>
+      </c>
+      <c r="F88" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>88</v>
+      </c>
+      <c r="B89" s="47">
+        <v>1000727</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="13">
+        <v>1</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G89" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="H89" s="41" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>89</v>
+      </c>
+      <c r="B90" s="47">
+        <v>1000728</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="13">
+        <v>1</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="H90" s="41" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>90</v>
+      </c>
+      <c r="B91" s="47">
+        <v>1000729</v>
+      </c>
+      <c r="C91" s="13">
+        <v>3</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91" s="13">
+        <v>2</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="H91" s="41" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>91</v>
+      </c>
+      <c r="B92" s="47">
+        <v>1000730</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G92" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="H92" s="41" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>92</v>
+      </c>
+      <c r="B93" s="47">
+        <v>1000731</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" s="13">
+        <v>1</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H93" s="41" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>93</v>
+      </c>
+      <c r="B94" s="47">
+        <v>1000732</v>
+      </c>
+      <c r="C94" s="13">
+        <v>8</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="H94" s="41" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40"/>

--- a/config_8.3/activity_ty_task_config.xlsx
+++ b/config_8.3/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -2301,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2607,9 +2607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5148,7 +5148,7 @@
         <v>268</v>
       </c>
       <c r="E91" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" s="41" t="s">
         <v>252</v>
@@ -5283,6 +5283,6 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>